--- a/lab1/Бинарная сигмоидальная/Бинарная сигмоида.xlsx
+++ b/lab1/Бинарная сигмоидальная/Бинарная сигмоида.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ouroboros/Work/neural-networks/lab1/Бинарная сигмоидальная/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070252E5-C6DF-9546-BA89-692F8E4EC6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78F1425-0EDC-7249-990B-115EC18EB9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{DDC1664C-2BAF-2447-9E0A-72EEF4639817}"/>
   </bookViews>
@@ -137,37 +137,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1020,45 +990,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.31501377952755905"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2826,8 +2758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41E30DE-A4B9-F846-B653-507EE393D052}">
   <dimension ref="B10:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
